--- a/SA_Locations/SA_Location_Arizona.xlsx
+++ b/SA_Locations/SA_Location_Arizona.xlsx
@@ -570,46 +570,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.123</v>
+        <v>12.405</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.907</v>
       </c>
       <c r="D3" t="n">
-        <v>36.894</v>
+        <v>113.624</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>27.662</v>
+        <v>33.403</v>
       </c>
       <c r="G3" t="n">
-        <v>26.933</v>
+        <v>31.658</v>
       </c>
       <c r="H3" t="n">
-        <v>0.729</v>
+        <v>1.745</v>
       </c>
       <c r="I3" t="n">
-        <v>0.729</v>
+        <v>1.745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>165.7358</v>
+        <v>31.658</v>
       </c>
       <c r="L3" t="n">
-        <v>26.933</v>
+        <v>31.658</v>
       </c>
       <c r="M3" t="n">
-        <v>138.8028</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>18.5624</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>120.2404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -813,46 +813,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.123</v>
+        <v>12.405</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.907</v>
       </c>
       <c r="D3" t="n">
-        <v>36.894</v>
+        <v>113.624</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>27.662</v>
+        <v>33.403</v>
       </c>
       <c r="G3" t="n">
-        <v>26.933</v>
+        <v>31.658</v>
       </c>
       <c r="H3" t="n">
-        <v>0.729</v>
+        <v>1.745</v>
       </c>
       <c r="I3" t="n">
-        <v>0.729</v>
+        <v>1.745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>235.6894</v>
+        <v>31.658</v>
       </c>
       <c r="L3" t="n">
-        <v>26.933</v>
+        <v>31.658</v>
       </c>
       <c r="M3" t="n">
-        <v>208.7564</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>22.4428</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>186.3136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1056,46 +1056,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.123</v>
+        <v>12.405</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.907</v>
       </c>
       <c r="D3" t="n">
-        <v>36.894</v>
+        <v>84.34999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>27.662</v>
+        <v>32.801</v>
       </c>
       <c r="G3" t="n">
-        <v>26.933</v>
+        <v>31.056</v>
       </c>
       <c r="H3" t="n">
-        <v>0.729</v>
+        <v>1.745</v>
       </c>
       <c r="I3" t="n">
-        <v>0.729</v>
+        <v>1.745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>155.9246</v>
+        <v>34.2968</v>
       </c>
       <c r="L3" t="n">
-        <v>26.933</v>
+        <v>31.056</v>
       </c>
       <c r="M3" t="n">
-        <v>128.9916</v>
+        <v>3.2408</v>
       </c>
       <c r="N3" t="n">
-        <v>33.941</v>
+        <v>3.2408</v>
       </c>
       <c r="O3" t="n">
-        <v>95.0506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1299,46 +1299,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.123</v>
+        <v>12.405</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.907</v>
       </c>
       <c r="D3" t="n">
-        <v>36.894</v>
+        <v>113.624</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>27.662</v>
+        <v>31.658</v>
       </c>
       <c r="G3" t="n">
-        <v>26.933</v>
+        <v>31.658</v>
       </c>
       <c r="H3" t="n">
-        <v>0.729</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.729</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>194.6192</v>
+        <v>38.63680000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>26.933</v>
+        <v>31.658</v>
       </c>
       <c r="M3" t="n">
-        <v>167.6862</v>
+        <v>6.9788</v>
       </c>
       <c r="N3" t="n">
-        <v>35.157</v>
+        <v>6.9788</v>
       </c>
       <c r="O3" t="n">
-        <v>132.5294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>10.066</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.705</v>
       </c>
       <c r="D3" t="n">
-        <v>3.546</v>
+        <v>114.038</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>26.92</v>
+        <v>33.151</v>
       </c>
       <c r="G3" t="n">
-        <v>25.257</v>
+        <v>30.903</v>
       </c>
       <c r="H3" t="n">
-        <v>1.664</v>
+        <v>2.248</v>
       </c>
       <c r="I3" t="n">
-        <v>1.664</v>
+        <v>2.248</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1250.902</v>
+        <v>54.58199999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>25.257</v>
+        <v>30.903</v>
       </c>
       <c r="M3" t="n">
-        <v>1225.645</v>
+        <v>23.679</v>
       </c>
       <c r="N3" t="n">
-        <v>62.005</v>
+        <v>3.4208</v>
       </c>
       <c r="O3" t="n">
-        <v>1163.64</v>
+        <v>20.2582</v>
       </c>
     </row>
     <row r="4">

--- a/SA_Locations/SA_Location_Arizona.xlsx
+++ b/SA_Locations/SA_Location_Arizona.xlsx
@@ -521,22 +521,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.212599999999999</v>
+        <v>7.22995</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4971</v>
+        <v>0.7152999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>71.44879999999999</v>
+        <v>71.01964999999998</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005249999999999999</v>
+        <v>0.0363</v>
       </c>
       <c r="F2" t="n">
-        <v>28.9944</v>
+        <v>27.7257</v>
       </c>
       <c r="G2" t="n">
-        <v>28.9944</v>
+        <v>27.7257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -548,19 +548,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>70.1538</v>
+        <v>60.9236</v>
       </c>
       <c r="L2" t="n">
-        <v>28.994</v>
+        <v>27.726</v>
       </c>
       <c r="M2" t="n">
-        <v>41.1598</v>
+        <v>33.1976</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1968</v>
+        <v>0.191</v>
       </c>
       <c r="O2" t="n">
-        <v>40.963</v>
+        <v>33.00680000000001</v>
       </c>
     </row>
     <row r="3">
@@ -570,37 +570,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.405</v>
+        <v>12.495</v>
       </c>
       <c r="C3" t="n">
-        <v>1.907</v>
+        <v>2.449</v>
       </c>
       <c r="D3" t="n">
-        <v>113.624</v>
+        <v>112.513</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>33.403</v>
+        <v>32.18</v>
       </c>
       <c r="G3" t="n">
-        <v>31.658</v>
+        <v>30.432</v>
       </c>
       <c r="H3" t="n">
-        <v>1.745</v>
+        <v>1.748</v>
       </c>
       <c r="I3" t="n">
-        <v>1.745</v>
+        <v>1.748</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>31.658</v>
+        <v>30.432</v>
       </c>
       <c r="L3" t="n">
-        <v>31.658</v>
+        <v>30.432</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.579</v>
+        <v>20.702</v>
       </c>
       <c r="C4" t="n">
-        <v>1.705</v>
+        <v>2.449</v>
       </c>
       <c r="D4" t="n">
-        <v>114.039</v>
+        <v>112.513</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>34.239</v>
+        <v>33.036</v>
       </c>
       <c r="G4" t="n">
-        <v>34.23921643835617</v>
+        <v>33.03649863013699</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.2534</v>
+        <v>33.036</v>
       </c>
       <c r="L4" t="n">
-        <v>34.239</v>
+        <v>33.036</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0144</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0144</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -764,22 +764,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.928749999999999</v>
+        <v>6.946099999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4989</v>
+        <v>0.70175</v>
       </c>
       <c r="D2" t="n">
-        <v>71.76919999999998</v>
+        <v>71.37609999999998</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.08334999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>28.9111</v>
+        <v>27.64249999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>28.9111</v>
+        <v>27.64249999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>101.3146</v>
+        <v>94.3614</v>
       </c>
       <c r="L2" t="n">
-        <v>28.911</v>
+        <v>27.642</v>
       </c>
       <c r="M2" t="n">
-        <v>72.4036</v>
+        <v>66.71939999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>2.98</v>
+        <v>2.934</v>
       </c>
       <c r="O2" t="n">
-        <v>69.42359999999999</v>
+        <v>63.7852</v>
       </c>
     </row>
     <row r="3">
@@ -813,37 +813,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.405</v>
+        <v>12.495</v>
       </c>
       <c r="C3" t="n">
-        <v>1.907</v>
+        <v>2.449</v>
       </c>
       <c r="D3" t="n">
-        <v>113.624</v>
+        <v>112.513</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>33.403</v>
+        <v>32.18</v>
       </c>
       <c r="G3" t="n">
-        <v>31.658</v>
+        <v>30.432</v>
       </c>
       <c r="H3" t="n">
-        <v>1.745</v>
+        <v>1.748</v>
       </c>
       <c r="I3" t="n">
-        <v>1.745</v>
+        <v>1.748</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>31.658</v>
+        <v>30.432</v>
       </c>
       <c r="L3" t="n">
-        <v>31.658</v>
+        <v>30.432</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.579</v>
+        <v>20.702</v>
       </c>
       <c r="C4" t="n">
-        <v>1.705</v>
+        <v>2.449</v>
       </c>
       <c r="D4" t="n">
-        <v>114.038</v>
+        <v>112.513</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>34.239</v>
+        <v>33.036</v>
       </c>
       <c r="G4" t="n">
-        <v>34.23919726027398</v>
+        <v>33.03649863013699</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -889,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.2442</v>
+        <v>33.036</v>
       </c>
       <c r="L4" t="n">
-        <v>34.239</v>
+        <v>33.036</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0052</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0052</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.92475</v>
+        <v>6.944749999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.59335</v>
+        <v>0.8144</v>
       </c>
       <c r="D2" t="n">
-        <v>65.05624999999999</v>
+        <v>64.62134999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005249999999999999</v>
+        <v>0.06795</v>
       </c>
       <c r="F2" t="n">
-        <v>28.78185</v>
+        <v>27.51475</v>
       </c>
       <c r="G2" t="n">
-        <v>28.78185</v>
+        <v>27.51475</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.2548</v>
+        <v>41.2306</v>
       </c>
       <c r="L2" t="n">
-        <v>28.782</v>
+        <v>27.515</v>
       </c>
       <c r="M2" t="n">
-        <v>10.4728</v>
+        <v>13.7156</v>
       </c>
       <c r="N2" t="n">
-        <v>10.4728</v>
+        <v>10.4554</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.2602</v>
       </c>
     </row>
     <row r="3">
@@ -1056,37 +1056,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.405</v>
+        <v>12.495</v>
       </c>
       <c r="C3" t="n">
-        <v>1.907</v>
+        <v>2.449</v>
       </c>
       <c r="D3" t="n">
-        <v>84.34999999999999</v>
+        <v>83.238</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>32.801</v>
+        <v>31.578</v>
       </c>
       <c r="G3" t="n">
-        <v>31.056</v>
+        <v>29.83</v>
       </c>
       <c r="H3" t="n">
-        <v>1.745</v>
+        <v>1.748</v>
       </c>
       <c r="I3" t="n">
-        <v>1.745</v>
+        <v>1.748</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>34.2968</v>
+        <v>33.0708</v>
       </c>
       <c r="L3" t="n">
-        <v>31.056</v>
+        <v>29.82999999999999</v>
       </c>
       <c r="M3" t="n">
         <v>3.2408</v>
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.579</v>
+        <v>20.702</v>
       </c>
       <c r="C4" t="n">
-        <v>1.705</v>
+        <v>2.449</v>
       </c>
       <c r="D4" t="n">
-        <v>84.764</v>
+        <v>83.238</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>33.637</v>
+        <v>32.435</v>
       </c>
       <c r="G4" t="n">
-        <v>33.63726575342466</v>
+        <v>32.43454794520548</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>36.878</v>
+        <v>35.6758</v>
       </c>
       <c r="L4" t="n">
-        <v>33.637</v>
+        <v>32.435</v>
       </c>
       <c r="M4" t="n">
-        <v>3.241000000000001</v>
+        <v>3.2408</v>
       </c>
       <c r="N4" t="n">
-        <v>3.241000000000001</v>
+        <v>3.2408</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1250,22 +1250,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.1051</v>
+        <v>6.124000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5972499999999999</v>
+        <v>0.8122000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>69.04109999999999</v>
+        <v>68.59699999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005249999999999999</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>28.6041</v>
+        <v>27.3364</v>
       </c>
       <c r="G2" t="n">
-        <v>28.6041</v>
+        <v>27.3364</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1277,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>65.52380000000001</v>
+        <v>81.59760000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>28.604</v>
+        <v>27.336</v>
       </c>
       <c r="M2" t="n">
-        <v>36.9198</v>
+        <v>54.2616</v>
       </c>
       <c r="N2" t="n">
-        <v>18.1206</v>
+        <v>18.0342</v>
       </c>
       <c r="O2" t="n">
-        <v>18.7992</v>
+        <v>36.2274</v>
       </c>
     </row>
     <row r="3">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.405</v>
+        <v>12.495</v>
       </c>
       <c r="C3" t="n">
-        <v>1.907</v>
+        <v>2.449</v>
       </c>
       <c r="D3" t="n">
-        <v>113.624</v>
+        <v>112.513</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>31.658</v>
+        <v>30.432</v>
       </c>
       <c r="G3" t="n">
-        <v>31.658</v>
+        <v>30.432</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>38.63680000000001</v>
+        <v>37.4218</v>
       </c>
       <c r="L3" t="n">
-        <v>31.658</v>
+        <v>30.432</v>
       </c>
       <c r="M3" t="n">
-        <v>6.9788</v>
+        <v>6.9898</v>
       </c>
       <c r="N3" t="n">
-        <v>6.9788</v>
+        <v>6.9898</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.405</v>
+        <v>12.495</v>
       </c>
       <c r="C4" t="n">
-        <v>1.907</v>
+        <v>2.449</v>
       </c>
       <c r="D4" t="n">
-        <v>113.624</v>
+        <v>112.513</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>31.658</v>
+        <v>30.432</v>
       </c>
       <c r="G4" t="n">
-        <v>31.65823835616438</v>
+        <v>30.43221369863014</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1375,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>38.63680000000001</v>
+        <v>37.4218</v>
       </c>
       <c r="L4" t="n">
-        <v>31.658</v>
+        <v>30.432</v>
       </c>
       <c r="M4" t="n">
-        <v>6.9788</v>
+        <v>6.9898</v>
       </c>
       <c r="N4" t="n">
-        <v>6.9788</v>
+        <v>6.9898</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.6118</v>
+        <v>6.6274</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5111999999999999</v>
+        <v>0.6949500000000002</v>
       </c>
       <c r="D2" t="n">
-        <v>68.13685000000001</v>
+        <v>67.77709999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005249999999999999</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>28.73715</v>
+        <v>27.46685</v>
       </c>
       <c r="G2" t="n">
-        <v>28.73715</v>
+        <v>27.46685</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1520,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>136.732</v>
+        <v>135.4388</v>
       </c>
       <c r="L2" t="n">
-        <v>28.737</v>
+        <v>27.467</v>
       </c>
       <c r="M2" t="n">
-        <v>107.995</v>
+        <v>107.9718</v>
       </c>
       <c r="N2" t="n">
-        <v>10.5676</v>
+        <v>10.5994</v>
       </c>
       <c r="O2" t="n">
-        <v>97.42760000000001</v>
+        <v>97.3724</v>
       </c>
     </row>
     <row r="3">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.066</v>
+        <v>10.141</v>
       </c>
       <c r="C3" t="n">
-        <v>1.705</v>
+        <v>2.449</v>
       </c>
       <c r="D3" t="n">
-        <v>114.038</v>
+        <v>112.513</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>33.151</v>
+        <v>31.934</v>
       </c>
       <c r="G3" t="n">
-        <v>30.903</v>
+        <v>29.685</v>
       </c>
       <c r="H3" t="n">
-        <v>2.248</v>
+        <v>2.249</v>
       </c>
       <c r="I3" t="n">
-        <v>2.248</v>
+        <v>2.249</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.58199999999999</v>
+        <v>34.1216</v>
       </c>
       <c r="L3" t="n">
-        <v>30.903</v>
+        <v>29.685</v>
       </c>
       <c r="M3" t="n">
-        <v>23.679</v>
+        <v>4.4366</v>
       </c>
       <c r="N3" t="n">
-        <v>3.4208</v>
+        <v>3.618</v>
       </c>
       <c r="O3" t="n">
-        <v>20.2582</v>
+        <v>0.8186</v>
       </c>
     </row>
     <row r="4">
@@ -1591,22 +1591,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.579</v>
+        <v>20.702</v>
       </c>
       <c r="C4" t="n">
-        <v>1.705</v>
+        <v>2.449</v>
       </c>
       <c r="D4" t="n">
-        <v>114.038</v>
+        <v>112.513</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>34.239</v>
+        <v>33.036</v>
       </c>
       <c r="G4" t="n">
-        <v>34.23919726027398</v>
+        <v>33.03649863013699</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.239</v>
+        <v>33.036</v>
       </c>
       <c r="L4" t="n">
-        <v>34.239</v>
+        <v>33.036</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>

--- a/SA_Locations/SA_Location_Arizona.xlsx
+++ b/SA_Locations/SA_Location_Arizona.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Fold_1" sheetId="1" state="visible" r:id="rId1"/>
@@ -57,18 +57,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -521,46 +521,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.22995</v>
+        <v>6.4524</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7152999999999999</v>
+        <v>13.11765</v>
       </c>
       <c r="D2" t="n">
-        <v>71.01964999999998</v>
+        <v>42.33325000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0363</v>
+        <v>7.883100000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>27.7257</v>
+        <v>2744.41815</v>
       </c>
       <c r="G2" t="n">
-        <v>27.7257</v>
+        <v>2502.83415</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.5838</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>241.5838</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.9236</v>
+        <v>2786.7014</v>
       </c>
       <c r="L2" t="n">
-        <v>27.726</v>
+        <v>2502.82</v>
       </c>
       <c r="M2" t="n">
-        <v>33.1976</v>
+        <v>283.8814</v>
       </c>
       <c r="N2" t="n">
-        <v>0.191</v>
+        <v>283.8814</v>
       </c>
       <c r="O2" t="n">
-        <v>33.00680000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -570,43 +570,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.495</v>
+        <v>6.498</v>
       </c>
       <c r="C3" t="n">
-        <v>2.449</v>
+        <v>12.883</v>
       </c>
       <c r="D3" t="n">
-        <v>112.513</v>
+        <v>42.408</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>8.683999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>32.18</v>
+        <v>2762.573</v>
       </c>
       <c r="G3" t="n">
-        <v>30.432</v>
+        <v>2505.618</v>
       </c>
       <c r="H3" t="n">
-        <v>1.748</v>
+        <v>256.955</v>
       </c>
       <c r="I3" t="n">
-        <v>1.748</v>
+        <v>256.955</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>30.432</v>
+        <v>2787.1376</v>
       </c>
       <c r="L3" t="n">
-        <v>30.432</v>
+        <v>2505.614</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>281.5236</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>281.5236</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -619,50 +619,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.702</v>
+        <v>7.077</v>
       </c>
       <c r="C4" t="n">
-        <v>2.449</v>
+        <v>15.658</v>
       </c>
       <c r="D4" t="n">
-        <v>112.513</v>
+        <v>43.68</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>5.511</v>
       </c>
       <c r="F4" t="n">
-        <v>33.036</v>
+        <v>2965.921</v>
       </c>
       <c r="G4" t="n">
-        <v>33.03649863013699</v>
+        <v>2665.546</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>300.375</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>300.375</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>33.036</v>
+        <v>2817.7894</v>
       </c>
       <c r="L4" t="n">
-        <v>33.036</v>
+        <v>2665.546</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>152.2434</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>152.2434</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -764,46 +764,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.946099999999999</v>
+        <v>6.448600000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.70175</v>
+        <v>12.87155</v>
       </c>
       <c r="D2" t="n">
-        <v>71.37609999999998</v>
+        <v>42.30675</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08334999999999999</v>
+        <v>7.87035</v>
       </c>
       <c r="F2" t="n">
-        <v>27.64249999999999</v>
+        <v>2730.331150000001</v>
       </c>
       <c r="G2" t="n">
-        <v>27.64249999999999</v>
+        <v>2492.5926</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>237.73845</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>237.73845</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>94.3614</v>
+        <v>2845.517</v>
       </c>
       <c r="L2" t="n">
-        <v>27.642</v>
+        <v>2492.584</v>
       </c>
       <c r="M2" t="n">
-        <v>66.71939999999999</v>
+        <v>352.933</v>
       </c>
       <c r="N2" t="n">
-        <v>2.934</v>
+        <v>352.933</v>
       </c>
       <c r="O2" t="n">
-        <v>63.7852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -813,43 +813,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.495</v>
+        <v>6.513</v>
       </c>
       <c r="C3" t="n">
-        <v>2.449</v>
+        <v>12.798</v>
       </c>
       <c r="D3" t="n">
-        <v>112.513</v>
+        <v>42.498</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>8.002000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>32.18</v>
+        <v>2748.533</v>
       </c>
       <c r="G3" t="n">
-        <v>30.432</v>
+        <v>2499.591</v>
       </c>
       <c r="H3" t="n">
-        <v>1.748</v>
+        <v>248.942</v>
       </c>
       <c r="I3" t="n">
-        <v>1.748</v>
+        <v>248.942</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>30.432</v>
+        <v>2843.9204</v>
       </c>
       <c r="L3" t="n">
-        <v>30.432</v>
+        <v>2499.627</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>344.2934</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>344.2934</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -862,50 +862,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.702</v>
+        <v>6.767</v>
       </c>
       <c r="C4" t="n">
-        <v>2.449</v>
+        <v>13.933</v>
       </c>
       <c r="D4" t="n">
-        <v>112.513</v>
+        <v>42.688</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4.074</v>
       </c>
       <c r="F4" t="n">
-        <v>33.036</v>
+        <v>2865.308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.03649863013699</v>
+        <v>2544.812</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>320.496</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>320.496</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>33.036</v>
+        <v>2844.6968</v>
       </c>
       <c r="L4" t="n">
-        <v>33.036</v>
+        <v>2544.812</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>299.8848</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>299.8848</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1007,46 +1007,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.944749999999999</v>
+        <v>6.4872</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8144</v>
+        <v>12.84385</v>
       </c>
       <c r="D2" t="n">
-        <v>64.62134999999999</v>
+        <v>44.0861</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06795</v>
+        <v>8.277400000000002</v>
       </c>
       <c r="F2" t="n">
-        <v>27.51475</v>
+        <v>2748.435200000001</v>
       </c>
       <c r="G2" t="n">
-        <v>27.51475</v>
+        <v>2512.403</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>236.032</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>236.032</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>41.2306</v>
+        <v>2762.622199999999</v>
       </c>
       <c r="L2" t="n">
-        <v>27.515</v>
+        <v>2512.394</v>
       </c>
       <c r="M2" t="n">
-        <v>13.7156</v>
+        <v>250.2282</v>
       </c>
       <c r="N2" t="n">
-        <v>10.4554</v>
+        <v>250.2282</v>
       </c>
       <c r="O2" t="n">
-        <v>3.2602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1056,43 +1056,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.495</v>
+        <v>6.559</v>
       </c>
       <c r="C3" t="n">
-        <v>2.449</v>
+        <v>12.87</v>
       </c>
       <c r="D3" t="n">
-        <v>83.238</v>
+        <v>44.398</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>8.595000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>31.578</v>
+        <v>2768.304</v>
       </c>
       <c r="G3" t="n">
-        <v>29.83</v>
+        <v>2526.478</v>
       </c>
       <c r="H3" t="n">
-        <v>1.748</v>
+        <v>241.826</v>
       </c>
       <c r="I3" t="n">
-        <v>1.748</v>
+        <v>241.826</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>33.0708</v>
+        <v>2762.332</v>
       </c>
       <c r="L3" t="n">
-        <v>29.82999999999999</v>
+        <v>2526.445</v>
       </c>
       <c r="M3" t="n">
-        <v>3.2408</v>
+        <v>235.887</v>
       </c>
       <c r="N3" t="n">
-        <v>3.2408</v>
+        <v>235.887</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1105,50 +1105,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.702</v>
+        <v>7.077</v>
       </c>
       <c r="C4" t="n">
-        <v>2.449</v>
+        <v>15.658</v>
       </c>
       <c r="D4" t="n">
-        <v>83.238</v>
+        <v>43.68</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>5.511</v>
       </c>
       <c r="F4" t="n">
-        <v>32.435</v>
+        <v>2965.921</v>
       </c>
       <c r="G4" t="n">
-        <v>32.43454794520548</v>
+        <v>2665.546</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>300.375</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>300.375</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>35.6758</v>
+        <v>2801.8106</v>
       </c>
       <c r="L4" t="n">
-        <v>32.435</v>
+        <v>2665.546</v>
       </c>
       <c r="M4" t="n">
-        <v>3.2408</v>
+        <v>136.2646</v>
       </c>
       <c r="N4" t="n">
-        <v>3.2408</v>
+        <v>136.2646</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1250,46 +1250,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.124000000000001</v>
+        <v>6.490799999999998</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8122000000000001</v>
+        <v>12.9528</v>
       </c>
       <c r="D2" t="n">
-        <v>68.59699999999999</v>
+        <v>43.1283</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09379999999999999</v>
+        <v>7.943299999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>27.3364</v>
+        <v>2761.1887</v>
       </c>
       <c r="G2" t="n">
-        <v>27.3364</v>
+        <v>2507.337850000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>253.85065</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>253.85065</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>81.59760000000001</v>
+        <v>2701.7366</v>
       </c>
       <c r="L2" t="n">
-        <v>27.336</v>
+        <v>2507.322</v>
       </c>
       <c r="M2" t="n">
-        <v>54.2616</v>
+        <v>194.4146</v>
       </c>
       <c r="N2" t="n">
-        <v>18.0342</v>
+        <v>194.4146</v>
       </c>
       <c r="O2" t="n">
-        <v>36.2274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1299,43 +1299,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.495</v>
+        <v>6.588</v>
       </c>
       <c r="C3" t="n">
-        <v>2.449</v>
+        <v>12.752</v>
       </c>
       <c r="D3" t="n">
-        <v>112.513</v>
+        <v>44.691</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>8.587</v>
       </c>
       <c r="F3" t="n">
-        <v>30.432</v>
+        <v>2782.799</v>
       </c>
       <c r="G3" t="n">
-        <v>30.432</v>
+        <v>2527.375</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>255.424</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>255.424</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>37.4218</v>
+        <v>2704.0834</v>
       </c>
       <c r="L3" t="n">
-        <v>30.432</v>
+        <v>2527.387</v>
       </c>
       <c r="M3" t="n">
-        <v>6.9898</v>
+        <v>176.6964</v>
       </c>
       <c r="N3" t="n">
-        <v>6.9898</v>
+        <v>176.6964</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1348,50 +1348,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.495</v>
+        <v>7.077</v>
       </c>
       <c r="C4" t="n">
-        <v>2.449</v>
+        <v>15.658</v>
       </c>
       <c r="D4" t="n">
-        <v>112.513</v>
+        <v>43.68</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>5.511</v>
       </c>
       <c r="F4" t="n">
-        <v>30.432</v>
+        <v>2965.921</v>
       </c>
       <c r="G4" t="n">
-        <v>30.43221369863014</v>
+        <v>2665.546</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>300.375</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>300.375</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>37.4218</v>
+        <v>2751.0972</v>
       </c>
       <c r="L4" t="n">
-        <v>30.432</v>
+        <v>2665.546</v>
       </c>
       <c r="M4" t="n">
-        <v>6.9898</v>
+        <v>85.55119999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>6.9898</v>
+        <v>85.55119999999999</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1493,46 +1493,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.6274</v>
+        <v>6.544</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6949500000000002</v>
+        <v>13.07835</v>
       </c>
       <c r="D2" t="n">
-        <v>67.77709999999999</v>
+        <v>43.8576</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09379999999999999</v>
+        <v>7.40545</v>
       </c>
       <c r="F2" t="n">
-        <v>27.46685</v>
+        <v>2751.4278</v>
       </c>
       <c r="G2" t="n">
-        <v>27.46685</v>
+        <v>2519.781</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>231.6467</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>231.6467</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>135.4388</v>
+        <v>2750.6094</v>
       </c>
       <c r="L2" t="n">
-        <v>27.467</v>
+        <v>2519.768</v>
       </c>
       <c r="M2" t="n">
-        <v>107.9718</v>
+        <v>230.8414</v>
       </c>
       <c r="N2" t="n">
-        <v>10.5994</v>
+        <v>230.8414</v>
       </c>
       <c r="O2" t="n">
-        <v>97.3724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.141</v>
+        <v>6.598</v>
       </c>
       <c r="C3" t="n">
-        <v>2.449</v>
+        <v>12.856</v>
       </c>
       <c r="D3" t="n">
-        <v>112.513</v>
+        <v>44.91</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>8.055</v>
       </c>
       <c r="F3" t="n">
-        <v>31.934</v>
+        <v>2771.008</v>
       </c>
       <c r="G3" t="n">
-        <v>29.685</v>
+        <v>2530.217</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249</v>
+        <v>240.79</v>
       </c>
       <c r="I3" t="n">
-        <v>2.249</v>
+        <v>240.79</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>34.1216</v>
+        <v>2752.1964</v>
       </c>
       <c r="L3" t="n">
-        <v>29.685</v>
+        <v>2530.211</v>
       </c>
       <c r="M3" t="n">
-        <v>4.4366</v>
+        <v>221.9854</v>
       </c>
       <c r="N3" t="n">
-        <v>3.618</v>
+        <v>221.9854</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1591,49 +1591,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.702</v>
+        <v>7.077</v>
       </c>
       <c r="C4" t="n">
-        <v>2.449</v>
+        <v>15.658</v>
       </c>
       <c r="D4" t="n">
-        <v>112.513</v>
+        <v>43.68</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>5.511</v>
       </c>
       <c r="F4" t="n">
-        <v>33.036</v>
+        <v>2965.921</v>
       </c>
       <c r="G4" t="n">
-        <v>33.03649863013699</v>
+        <v>2665.546</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>300.375</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>300.375</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>33.036</v>
+        <v>2800.6596</v>
       </c>
       <c r="L4" t="n">
-        <v>33.036</v>
+        <v>2665.546</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>135.1136</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>135.1136</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>